--- a/ResourceFiles/Fabrikam Q1 marketing campaigns.xlsx
+++ b/ResourceFiles/Fabrikam Q1 marketing campaigns.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/tfrink_microsoft_com/Documents/Documents/Modern Work/Learn courses/MS-4004T00 - V1 Feb 2024/Use Case files/M5 - Finance/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/maquinl_microsoft_com/Documents/Desktop/Source files/MS-4004_4005/ms-4004/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{6FBB9A79-9152-4D00-B173-9D278B68BEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3825" yWindow="2340" windowWidth="43935" windowHeight="16605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -558,18 +558,18 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -595,7 +595,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -621,7 +621,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -647,7 +647,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -673,7 +673,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -699,7 +699,7 @@
         <v>5418</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -725,7 +725,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -751,7 +751,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -777,7 +777,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -803,7 +803,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -829,7 +829,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -855,7 +855,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -881,7 +881,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -917,6 +917,6 @@
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" removed="0"/>
+  <clbl:label id="{87ba5c36-b7cf-4793-bbc2-bd5b3a9f95ca}" enabled="1" method="Privileged" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" removed="0"/>
 </clbl:labelList>
 </file>